--- a/Experiment Results.xlsx
+++ b/Experiment Results.xlsx
@@ -8,13 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lola/Dropbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879E5543-A7CA-C745-857F-76D45EA33B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EFAD9A-418F-DB4E-8651-8EDD7B5AAD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="820" windowWidth="28940" windowHeight="17340" xr2:uid="{2C902D10-F14B-3342-ABAE-04BC58B02A2F}"/>
+    <workbookView xWindow="180" yWindow="800" windowWidth="28940" windowHeight="17340" xr2:uid="{2C902D10-F14B-3342-ABAE-04BC58B02A2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$F$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$G$1:$J$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$2:$J$2</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$3:$J$3</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$G$4:$J$4</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$G$5:$J$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Useful suggestions</t>
   </si>
@@ -69,6 +80,54 @@
   </si>
   <si>
     <t>Proportion of elements that overlap with the suggestions no ontology</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>CHIBO</t>
+  </si>
+  <si>
+    <t>Participant 1</t>
+  </si>
+  <si>
+    <t>Participant 2</t>
+  </si>
+  <si>
+    <t>Participant 3</t>
+  </si>
+  <si>
+    <t>Participant 4</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>M1 Simple</t>
+  </si>
+  <si>
+    <t>M2 Simple</t>
+  </si>
+  <si>
+    <t>M1 CHIBO</t>
+  </si>
+  <si>
+    <t>M2 CHIBO</t>
+  </si>
+  <si>
+    <t>M3 Simple</t>
+  </si>
+  <si>
+    <t>M4 Simple</t>
+  </si>
+  <si>
+    <t>M3 CHIBO</t>
+  </si>
+  <si>
+    <t>M4 CHIBO</t>
   </si>
 </sst>
 </file>
@@ -147,6 +206,2769 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M1 Simple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Participant 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Participant 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Participant 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Participant 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D991-E940-AB9C-C54906A524E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M2 Simple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Participant 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Participant 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Participant 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Participant 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D991-E940-AB9C-C54906A524E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M1 CHIBO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Participant 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Participant 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Participant 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Participant 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.64285714285714202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.952380952380952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97619047619047605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59523809523809501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D991-E940-AB9C-C54906A524E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M2 CHIBO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Participant 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Participant 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Participant 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Participant 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.28571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.476190476190476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30952380952380898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D991-E940-AB9C-C54906A524E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1084048528"/>
+        <c:axId val="563887696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1084048528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563887696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="563887696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1084048528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M3 Simple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.2235814788687479E-2"/>
+                  <c:y val="-5.1691765664538354E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-8656-8F48-801F-6452F171D1BF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Participant 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Participant 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Participant 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Participant 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8656-8F48-801F-6452F171D1BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M4 Simple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.7886518309499831E-3"/>
+                  <c:y val="1.0338353132907718E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-8656-8F48-801F-6452F171D1BF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4682977746424885E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-8656-8F48-801F-6452F171D1BF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Participant 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Participant 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Participant 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Participant 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$3:$S$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8656-8F48-801F-6452F171D1BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M3 CHIBO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4471629577375183E-3"/>
+                  <c:y val="-5.1691765664538822E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-8656-8F48-801F-6452F171D1BF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Participant 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Participant 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Participant 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Participant 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$4:$S$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8656-8F48-801F-6452F171D1BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M4 CHIBO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4682977746424974E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-8656-8F48-801F-6452F171D1BF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.447162957737406E-3"/>
+                  <c:y val="5.1691765664538354E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-8656-8F48-801F-6452F171D1BF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$1:$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Participant 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Participant 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Participant 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Participant 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$5:$S$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8656-8F48-801F-6452F171D1BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="991083487"/>
+        <c:axId val="1055086991"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="991083487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1055086991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1055086991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="991083487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>184728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>577273</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>113144</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98FF8C3E-3A8F-DD65-A081-F6ED6605CAD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>386773</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>48493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>588819</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>11545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F775BBA4-10F5-E408-6341-EE71DD99CF8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,48 +3288,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D640DF0C-5BF7-D24A-910F-FB212464B1E6}">
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
+      <c r="B1" s="1">
+        <f>B40</f>
+        <v>0.9</v>
+      </c>
       <c r="F1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="N1" s="2"/>
-      <c r="P1" s="3"/>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1">
+        <f>B3</f>
+        <v>0.65</v>
+      </c>
+      <c r="H2" s="1">
+        <f>B15</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <f>B27</f>
+        <v>0.95</v>
+      </c>
+      <c r="J2" s="1">
+        <f>B40</f>
+        <v>0.9</v>
+      </c>
+      <c r="K2" s="1">
+        <f>AVERAGE(G2:J2)</f>
+        <v>0.87499999999999989</v>
+      </c>
+      <c r="L2" s="1">
+        <f>STDEV(G2:K2)</f>
+        <v>0.13462912017836365</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1">
+        <f>B5</f>
+        <v>0.125</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>B17</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="R2" s="1">
+        <f>B29</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="S2" s="1">
+        <f>B42</f>
+        <v>0.1</v>
+      </c>
+      <c r="T2" s="1">
+        <f>AVERAGE(P2:S2)</f>
+        <v>0.18124999999999999</v>
+      </c>
+      <c r="U2" s="1">
+        <f>STDEV(P2:T2)</f>
+        <v>8.7276500273555949E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -515,37 +3421,131 @@
         <v>0.65</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <f>B4</f>
+        <v>0.375</v>
+      </c>
+      <c r="H3" s="1">
+        <f>B16</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I3" s="1">
+        <f>B28</f>
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="1">
+        <f>B41</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K5" si="0">AVERAGE(G3:J3)</f>
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L5" si="1">STDEV(G3:K3)</f>
+        <v>0.12562344526401101</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="1">
+        <f>B6</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>B18</f>
+        <v>0.6</v>
+      </c>
+      <c r="R3" s="1">
+        <f>B30</f>
+        <v>0.15</v>
+      </c>
+      <c r="S3" s="1">
+        <f>B43</f>
+        <v>0.35</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T5" si="2">AVERAGE(P3:S3)</f>
+        <v>0.35624999999999996</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U5" si="3">STDEV(P3:T3)</f>
+        <v>0.16044372066241808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>0.375</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
+        <f>B8</f>
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="H4" s="1">
+        <f>B20</f>
+        <v>0.952380952380952</v>
+      </c>
+      <c r="I4" s="1">
+        <f>B32</f>
+        <v>0.97619047619047605</v>
+      </c>
+      <c r="J4" s="1">
+        <f>B45</f>
+        <v>0.59523809523809501</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.7916666666666663</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17364228745017685</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1">
+        <f>B10</f>
+        <v>0.375</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>B22</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="R4" s="1">
+        <f>B34</f>
+        <v>0.3</v>
+      </c>
+      <c r="S4" s="1">
+        <f>B47</f>
+        <v>0.3</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="3"/>
+        <v>9.1855865354369112E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -553,18 +3553,63 @@
         <v>0.125</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1">
+        <f>B9</f>
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="H5" s="1">
+        <f>B21</f>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="1">
+        <f>B33</f>
+        <v>0.476190476190476</v>
+      </c>
+      <c r="J5" s="1">
+        <f>B46</f>
+        <v>0.30952380952380898</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39285714285714246</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5979258908316434E-2</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="1">
+        <f>B11</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>B23</f>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="R5" s="1">
+        <f>B35</f>
+        <v>0.25</v>
+      </c>
+      <c r="S5" s="1">
+        <f>B48</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.48750000000000004</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.17897276329095443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -572,13 +3617,13 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -586,7 +3631,7 @@
         <v>0.64285714285714202</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -594,7 +3639,7 @@
         <v>0.28571428571428498</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -602,7 +3647,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -610,22 +3655,22 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -633,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -887,11 +3932,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>